--- a/empresa persepolis/soluciones/Aplicaciones x Verticales.xlsx
+++ b/empresa persepolis/soluciones/Aplicaciones x Verticales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Wong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry Wong\Documents\GitHub\persepolis\empresa persepolis\soluciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4800" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="383">
   <si>
     <t>APLICACIONES POR VERTICALES</t>
   </si>
@@ -1675,7 +1675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1760,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>12</v>
       </c>

--- a/empresa persepolis/soluciones/Aplicaciones x Verticales.xlsx
+++ b/empresa persepolis/soluciones/Aplicaciones x Verticales.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="384">
   <si>
     <t>APLICACIONES POR VERTICALES</t>
   </si>
@@ -1176,15 +1176,25 @@
   </si>
   <si>
     <t>https://itunes.apple.com/co/app/seguridad-en-linea/id528124621?mt=8</t>
+  </si>
+  <si>
+    <t>Ciudadano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1280,55 +1290,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1675,7 +1688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1788,9 @@
         <v>381</v>
       </c>
       <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="28" t="s">
+        <v>383</v>
+      </c>
       <c r="H3" s="27" t="s">
         <v>382</v>
       </c>
